--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">MAIN-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see.</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -120,6 +123,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,6 +205,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -218,10 +231,10 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.18"/>
@@ -381,8 +394,8 @@
       <c r="J5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -55,9 +55,18 @@
     <t xml:space="preserve">Utterance</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Human turn hum</t>
   </si>
   <si>
+    <t xml:space="preserve">哦好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Robot turn hum</t>
   </si>
   <si>
@@ -67,30 +76,39 @@
     <t xml:space="preserve">MAIN-1</t>
   </si>
   <si>
+    <t xml:space="preserve">哦好嘅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not owned turn hum</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transition COL</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN-2</t>
   </si>
   <si>
-    <t xml:space="preserve">I see.</t>
+    <t xml:space="preserve">好</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+  <fonts count="5">
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -110,54 +128,26 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -186,28 +176,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,23 +209,17 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.91"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -282,129 +254,117 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="J3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="n">
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="J4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>18</v>
+      <c r="J5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Transition COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN-2</t>
   </si>
   <si>
     <t xml:space="preserve">好</t>
@@ -132,6 +129,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,10 +207,10 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.33"/>
@@ -343,7 +341,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>10</v>
@@ -355,7 +353,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -55,19 +55,25 @@
     <t xml:space="preserve">Utterance</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human turn hum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哦好</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot turn hum</t>
+    <t xml:space="preserve">Human turn hum0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦好一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human turn hum1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦好二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human turn hum2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦好三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot turn hum0</t>
   </si>
   <si>
     <t xml:space="preserve">happy</t>
@@ -76,22 +82,91 @@
     <t xml:space="preserve">MAIN-1</t>
   </si>
   <si>
-    <t xml:space="preserve">哦好嘅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not owned turn hum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transition COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好</t>
+    <t xml:space="preserve">哦好嘅一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot turn hum1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">哦好嘅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">二</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot turn hum2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">哦好嘅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">三</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not owned turn hum0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唔一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not owned turn hum1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唔二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not owned turn hum2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唔三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition COL0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition COL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition COL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好三</t>
   </si>
 </sst>
 </file>
@@ -101,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -131,6 +206,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,6 +265,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,17 +289,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,107 +340,315 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -58,19 +58,16 @@
     <t xml:space="preserve">Human turn hum0</t>
   </si>
   <si>
-    <t xml:space="preserve">哦好一</t>
+    <t xml:space="preserve">明白</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum1</t>
   </si>
   <si>
-    <t xml:space="preserve">哦好二</t>
-  </si>
-  <si>
     <t xml:space="preserve">Human turn hum2</t>
   </si>
   <si>
-    <t xml:space="preserve">哦好三</t>
+    <t xml:space="preserve">哦</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum0</t>
@@ -82,91 +79,52 @@
     <t xml:space="preserve">MAIN-1</t>
   </si>
   <si>
-    <t xml:space="preserve">哦好嘅一</t>
+    <t xml:space="preserve">我諗下</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">哦好嘅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">二</t>
-    </r>
+    <t xml:space="preserve">俾我諗下</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">哦好嘅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">三</t>
-    </r>
+    <t xml:space="preserve">嗯，等我諗下</t>
   </si>
   <si>
     <t xml:space="preserve">Not owned turn hum0</t>
   </si>
   <si>
-    <t xml:space="preserve">唔一</t>
+    <t xml:space="preserve">嗯</t>
   </si>
   <si>
     <t xml:space="preserve">Not owned turn hum1</t>
   </si>
   <si>
-    <t xml:space="preserve">唔二</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not owned turn hum2</t>
   </si>
   <si>
-    <t xml:space="preserve">唔三</t>
+    <t xml:space="preserve">好</t>
   </si>
   <si>
     <t xml:space="preserve">Transition COL0</t>
   </si>
   <si>
-    <t xml:space="preserve">好一</t>
+    <t xml:space="preserve">好啊</t>
   </si>
   <si>
     <t xml:space="preserve">Transition COL1</t>
   </si>
   <si>
-    <t xml:space="preserve">好二</t>
+    <t xml:space="preserve">好嘞</t>
   </si>
   <si>
     <t xml:space="preserve">Transition COL2</t>
   </si>
   <si>
-    <t xml:space="preserve">好三</t>
+    <t xml:space="preserve">我聽到</t>
   </si>
 </sst>
 </file>
@@ -292,10 +250,10 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
@@ -339,7 +297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -357,8 +315,8 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,21 +324,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>80</v>
@@ -392,30 +350,30 @@
         <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>80</v>
@@ -427,7 +385,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>10</v>
@@ -439,18 +397,18 @@
         <v>100</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>80</v>
@@ -462,7 +420,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10</v>
@@ -474,18 +432,18 @@
         <v>100</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>80</v>
@@ -497,7 +455,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>10</v>
@@ -508,8 +466,8 @@
       <c r="J8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>26</v>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,10 +475,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>80</v>
@@ -532,7 +490,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>10</v>
@@ -544,7 +502,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,10 +510,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>80</v>
@@ -567,7 +525,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>10</v>
@@ -578,8 +536,8 @@
       <c r="J10" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>30</v>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,10 +545,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>10</v>
@@ -602,7 +560,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,10 +568,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>10</v>
@@ -625,18 +583,18 @@
         <v>100</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>10</v>
@@ -648,7 +606,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Human turn hum0</t>
   </si>
   <si>
-    <t xml:space="preserve">明白</t>
+    <t xml:space="preserve">係</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum1</t>
@@ -79,19 +79,13 @@
     <t xml:space="preserve">MAIN-1</t>
   </si>
   <si>
-    <t xml:space="preserve">我諗下</t>
+    <t xml:space="preserve">聽到</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum1</t>
   </si>
   <si>
-    <t xml:space="preserve">俾我諗下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot turn hum2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嗯，等我諗下</t>
+    <t xml:space="preserve">我聽到</t>
   </si>
   <si>
     <t xml:space="preserve">Not owned turn hum0</t>
@@ -103,28 +97,19 @@
     <t xml:space="preserve">Not owned turn hum1</t>
   </si>
   <si>
-    <t xml:space="preserve">Not owned turn hum2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transition COL0</t>
   </si>
   <si>
-    <t xml:space="preserve">好啊</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transition COL1</t>
   </si>
   <si>
-    <t xml:space="preserve">好嘞</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transition COL2</t>
   </si>
   <si>
-    <t xml:space="preserve">我聽到</t>
+    <t xml:space="preserve">Transition COL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">係嘅</t>
   </si>
 </sst>
 </file>
@@ -162,13 +147,13 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,10 +235,10 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
@@ -326,7 +311,7 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -361,7 +346,7 @@
       <c r="J5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -396,7 +381,7 @@
       <c r="J6" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -431,7 +416,7 @@
       <c r="J7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -466,28 +451,16 @@
       <c r="J8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
@@ -502,112 +475,83 @@
         <v>100</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -58,27 +58,39 @@
     <t xml:space="preserve">Human turn hum0</t>
   </si>
   <si>
+    <t xml:space="preserve">happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嗯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human turn hum1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human turn hum2</t>
+  </si>
+  <si>
     <t xml:space="preserve">係</t>
   </si>
   <si>
-    <t xml:space="preserve">Human turn hum1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human turn hum2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哦</t>
+    <t xml:space="preserve">Human turn hum3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">係嘅</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum0</t>
   </si>
   <si>
-    <t xml:space="preserve">happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">聽到</t>
   </si>
   <si>
@@ -88,15 +100,30 @@
     <t xml:space="preserve">我聽到</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot turn hum2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot turn hum3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot turn hum4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot turn hum5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not owned turn hum0</t>
   </si>
   <si>
-    <t xml:space="preserve">嗯</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not owned turn hum1</t>
   </si>
   <si>
+    <t xml:space="preserve">Not owned turn hum2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not owned turn hum3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transition COL0</t>
   </si>
   <si>
@@ -107,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">Transition COL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">係嘅</t>
   </si>
 </sst>
 </file>
@@ -119,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -155,6 +179,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +228,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +242,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,13 +266,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
@@ -289,8 +323,32 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -298,10 +356,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,10 +391,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,34 +409,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>80</v>
@@ -370,7 +442,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>10</v>
@@ -382,7 +454,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,10 +462,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>80</v>
@@ -405,7 +477,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10</v>
@@ -417,18 +489,18 @@
         <v>100</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>80</v>
@@ -440,7 +512,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>10</v>
@@ -452,18 +524,30 @@
         <v>100</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>10</v>
@@ -475,83 +559,262 @@
         <v>100</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>100</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -70,15 +70,15 @@
     <t xml:space="preserve">Human turn hum1</t>
   </si>
   <si>
+    <t xml:space="preserve">哦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human turn hum2</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAIN-2</t>
   </si>
   <si>
-    <t xml:space="preserve">哦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human turn hum2</t>
-  </si>
-  <si>
     <t xml:space="preserve">係</t>
   </si>
   <si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN-HOLDfist</t>
   </si>
   <si>
     <t xml:space="preserve">聽到</t>
@@ -143,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -165,12 +168,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -228,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,10 +239,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,12 +262,13 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.08"/>
@@ -371,19 +365,19 @@
         <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,15 +385,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
@@ -415,9 +418,18 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
@@ -441,8 +453,8 @@
       <c r="F6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>10</v>
@@ -453,8 +465,8 @@
       <c r="J6" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>23</v>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -476,8 +488,8 @@
       <c r="F7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10</v>
@@ -488,16 +500,16 @@
       <c r="J7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>25</v>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -523,7 +535,7 @@
       <c r="J8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -531,8 +543,8 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -547,36 +559,45 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="K10" s="3" t="s">
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -584,17 +605,26 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="K11" s="3" t="s">
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -603,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -637,8 +667,8 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -653,35 +683,44 @@
         <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="K14" s="2" t="s">
         <v>19</v>
       </c>
@@ -691,15 +730,24 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="K15" s="2" t="s">
         <v>21</v>
       </c>
@@ -709,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -735,7 +783,7 @@
       <c r="J16" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -744,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -759,19 +807,19 @@
         <v>40</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,16 +827,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="3" t="s">
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -797,16 +854,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="3" t="s">
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">happy</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN-1</t>
+    <t xml:space="preserve">MAIN-HOLDpalm</t>
   </si>
   <si>
     <t xml:space="preserve">嗯</t>
@@ -70,28 +70,31 @@
     <t xml:space="preserve">Human turn hum1</t>
   </si>
   <si>
+    <t xml:space="preserve">MAIN-HOLDfist</t>
+  </si>
+  <si>
     <t xml:space="preserve">哦</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum2</t>
   </si>
   <si>
+    <t xml:space="preserve">MAIN-SIT_0-B_frame_small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">係</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human turn hum3</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAIN-2</t>
   </si>
   <si>
-    <t xml:space="preserve">係</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human turn hum3</t>
-  </si>
-  <si>
     <t xml:space="preserve">係嘅</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN-HOLDfist</t>
   </si>
   <si>
     <t xml:space="preserve">聽到</t>
@@ -146,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -176,12 +179,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +222,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -235,10 +232,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,7 +255,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,7 +358,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>10</v>
@@ -377,7 +370,7 @@
         <v>100</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,14 +378,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>10</v>
@@ -404,7 +397,7 @@
         <v>100</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,14 +405,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>10</v>
@@ -431,7 +424,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,7 +432,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -453,8 +446,8 @@
       <c r="F6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>10</v>
@@ -466,7 +459,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -488,8 +481,8 @@
       <c r="F7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10</v>
@@ -501,7 +494,7 @@
         <v>100</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -544,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -559,7 +552,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>10</v>
@@ -571,7 +564,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,14 +572,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>10</v>
@@ -598,7 +591,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,14 +599,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>10</v>
@@ -625,7 +618,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -668,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -683,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>10</v>
@@ -695,7 +688,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,14 +696,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>10</v>
@@ -722,7 +715,7 @@
         <v>100</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,14 +723,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>10</v>
@@ -749,7 +742,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +750,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -792,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -807,7 +800,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10</v>
@@ -819,7 +812,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,14 +820,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>10</v>
@@ -846,7 +839,7 @@
         <v>100</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,14 +847,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
@@ -873,7 +866,7 @@
         <v>100</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">happy</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN-HOLDpalm</t>
+    <t xml:space="preserve">MAIN-SIT_0-L_offer</t>
   </si>
   <si>
     <t xml:space="preserve">嗯</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Human turn hum1</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN-HOLDfist</t>
+    <t xml:space="preserve">MAIN-SIT_0-B_contrasts_smaller</t>
   </si>
   <si>
     <t xml:space="preserve">哦</t>
@@ -82,27 +82,27 @@
     <t xml:space="preserve">MAIN-SIT_0-B_frame_small</t>
   </si>
   <si>
-    <t xml:space="preserve">係</t>
-  </si>
-  <si>
     <t xml:space="preserve">Human turn hum3</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">係嘅</t>
+    <t xml:space="preserve">MAIN-SIT_0-L_process_control</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum0</t>
   </si>
   <si>
+    <t xml:space="preserve">MAIN-SIT_0-B_frame_big</t>
+  </si>
+  <si>
     <t xml:space="preserve">聽到</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum1</t>
   </si>
   <si>
+    <t xml:space="preserve">MAIN-SIT_1-B_Different1</t>
+  </si>
+  <si>
     <t xml:space="preserve">我聽到</t>
   </si>
   <si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">Transition COL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition COL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition COL5</t>
   </si>
 </sst>
 </file>
@@ -252,16 +258,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.08"/>
@@ -397,7 +403,7 @@
         <v>100</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,14 +411,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>10</v>
@@ -424,7 +430,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -447,7 +453,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>10</v>
@@ -459,7 +465,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -482,7 +488,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10</v>
@@ -591,7 +597,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +612,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>10</v>
@@ -618,7 +624,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,7 +721,7 @@
         <v>100</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,7 +736,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>10</v>
@@ -742,7 +748,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,7 +845,7 @@
         <v>100</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +860,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
@@ -866,14 +872,78 @@
         <v>100</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Human turn hum2</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN-SIT_0-B_frame_small</t>
+    <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum3</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Robot turn hum1</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN-SIT_1-B_Different1</t>
+    <t xml:space="preserve">MAIN-SIT_1-R_Me</t>
   </si>
   <si>
     <t xml:space="preserve">我聽到</t>
@@ -261,7 +261,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">MAIN-SIT_0-L_offer</t>
   </si>
   <si>
-    <t xml:space="preserve">嗯</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="60%"&gt;嗯噢&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum1</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">MAIN-SIT_0-B_contrasts_smaller</t>
   </si>
   <si>
-    <t xml:space="preserve">哦</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="60%"&gt;哦&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum2</t>
@@ -82,19 +82,25 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;哦&lt;/prosody&gt;&lt;/speak&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Human turn hum3</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN-SIT_0-L_process_control</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;嗯噢&lt;/prosody&gt;&lt;/speak&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Robot turn hum0</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN-SIT_0-B_frame_big</t>
   </si>
   <si>
-    <t xml:space="preserve">聽到</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;聽到&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum1</t>
@@ -103,7 +109,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Me</t>
   </si>
   <si>
-    <t xml:space="preserve">我聽到</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;我聽到&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum2</t>
@@ -118,6 +124,41 @@
     <t xml:space="preserve">Robot turn hum5</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot turn hum6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;speak&gt; &lt;prosody rate="60%"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">係</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/prosody&gt;&lt;/speak&gt;</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Not owned turn hum0</t>
   </si>
   <si>
@@ -146,6 +187,9 @@
   </si>
   <si>
     <t xml:space="preserve">Transition COL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition COL6</t>
   </si>
 </sst>
 </file>
@@ -258,10 +302,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,7 +315,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="57.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,7 +353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -344,7 +388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -379,7 +423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -403,22 +447,22 @@
         <v>100</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>10</v>
@@ -430,15 +474,15 @@
         <v>100</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -453,7 +497,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>10</v>
@@ -465,15 +509,15 @@
         <v>100</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -488,7 +532,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10</v>
@@ -500,15 +544,15 @@
         <v>100</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -538,12 +582,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -573,12 +617,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -597,22 +641,22 @@
         <v>100</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>10</v>
@@ -624,21 +668,21 @@
         <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>10</v>
@@ -647,7 +691,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>10</v>
@@ -658,16 +702,16 @@
       <c r="J12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -682,34 +726,42 @@
         <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>10</v>
@@ -724,19 +776,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>10</v>
@@ -748,30 +800,22 @@
         <v>100</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>10</v>
@@ -786,12 +830,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -806,34 +850,42 @@
         <v>40</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>10</v>
@@ -848,19 +900,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
@@ -872,30 +924,22 @@
         <v>100</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>40</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>10</v>
@@ -907,15 +951,15 @@
         <v>100</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -930,19 +974,89 @@
         <v>40</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>27</v>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -64,7 +64,35 @@
     <t xml:space="preserve">MAIN-SIT_0-L_offer</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="60%"&gt;嗯噢&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">%"&gt;嗯噢&lt;/prosody&gt;&lt;/speak&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum1</t>
@@ -73,7 +101,35 @@
     <t xml:space="preserve">MAIN-SIT_0-B_contrasts_smaller</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="60%"&gt;哦&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">%"&gt;哦&lt;/prosody&gt;&lt;/speak&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum2</t>
@@ -165,6 +221,9 @@
     <t xml:space="preserve">Not owned turn hum1</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="80%"&gt;哦&lt;/prosody&gt;&lt;/speak&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not owned turn hum2</t>
   </si>
   <si>
@@ -199,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -228,6 +287,12 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,7 +370,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -773,7 +838,7 @@
         <v>100</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,7 +846,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -808,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -835,7 +900,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -870,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -905,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -932,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -959,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -994,7 +1059,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1029,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -64,35 +64,7 @@
     <t xml:space="preserve">MAIN-SIT_0-L_offer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">%"&gt;嗯噢&lt;/prosody&gt;&lt;/speak&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="80%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6 ge3"&gt;係嘅&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum1</t>
@@ -101,35 +73,7 @@
     <t xml:space="preserve">MAIN-SIT_0-B_contrasts_smaller</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">%"&gt;哦&lt;/prosody&gt;&lt;/speak&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="80%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum2</t>
@@ -138,7 +82,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;哦&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum3</t>
@@ -147,7 +91,7 @@
     <t xml:space="preserve">MAIN-SIT_0-L_process_control</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;嗯噢&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6 ge3"&gt;係嘅&lt;/phoneme&gt; &lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum0</t>
@@ -156,7 +100,7 @@
     <t xml:space="preserve">MAIN-SIT_0-B_frame_big</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;聽到&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1 dou2"&gt;聽到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum1</t>
@@ -165,7 +109,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Me</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;我聽到&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5 teng1 dou2"&gt;我聽到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum2</t>
@@ -178,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6 ge3"&gt;係嘅&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum6</t>
@@ -201,7 +148,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">係</t>
+      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6"&gt;係&lt;/phoneme&gt;</t>
     </r>
     <r>
       <rPr>
@@ -221,9 +168,6 @@
     <t xml:space="preserve">Not owned turn hum1</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="80%"&gt;哦&lt;/prosody&gt;&lt;/speak&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not owned turn hum2</t>
   </si>
   <si>
@@ -258,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -287,12 +231,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,8 +284,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -367,20 +309,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="57.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="96.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,7 +362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -453,7 +397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -488,7 +432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -542,7 +486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -577,7 +521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -612,7 +556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -647,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -682,7 +626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -733,15 +677,15 @@
         <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -767,16 +711,16 @@
       <c r="J12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -803,15 +747,15 @@
         <v>100</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -838,10 +782,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -868,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -895,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -927,10 +871,10 @@
         <v>100</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -965,7 +909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -992,7 +936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -1019,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -1054,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -1089,7 +1033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1120,9 +1064,45 @@
       <c r="J23" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>35</v>
-      </c>
+      <c r="K23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">MAIN-SIT_0-B_contrasts_smaller</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="80%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="70%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum2</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum3</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">MAIN-SIT_0-B_frame_big</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1 dou2"&gt;聽到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1"&gt;聽&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="dou2"&gt;到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum1</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Me</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5 teng1 dou2"&gt;我聽到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;我&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1"&gt;聽&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="dou2"&gt;到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum2</t>
@@ -192,6 +192,37 @@
     <t xml:space="preserve">Transition COL5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;我&lt;/phoneme&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1"&gt;聽&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="dou2"&gt;到&lt;/phoneme&gt;&lt;/prosody&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/speak&gt;</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Transition COL6</t>
   </si>
 </sst>
@@ -202,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -231,6 +262,12 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +312,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,6 +322,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,8 +352,8 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,7 +496,7 @@
       <c r="J4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -486,7 +527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -521,7 +562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -552,7 +593,7 @@
       <c r="J7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -622,7 +663,7 @@
       <c r="J9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -649,7 +690,7 @@
       <c r="J10" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -711,7 +752,7 @@
       <c r="J12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -781,7 +822,7 @@
       <c r="J14" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -808,7 +849,7 @@
       <c r="J15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -905,7 +946,7 @@
       <c r="J18" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -932,7 +973,7 @@
       <c r="J19" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -963,7 +1004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -998,7 +1039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -1030,7 +1071,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,7 +1079,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1064,41 +1105,41 @@
       <c r="J23" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">MAIN-SIT_0-B_contrasts_smaller</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="70%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="70%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum2</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum3</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Me</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;我&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1"&gt;聽&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="dou2"&gt;到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;我&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1"&gt;聽&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="dou2"&gt;到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum2</t>
@@ -192,37 +192,6 @@
     <t xml:space="preserve">Transition COL5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;我&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1"&gt;聽&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="dou2"&gt;到&lt;/phoneme&gt;&lt;/prosody&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/speak&gt;</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Transition COL6</t>
   </si>
 </sst>
@@ -233,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -262,12 +231,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,10 +285,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -353,7 +312,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="2" sqref="K3:K4 K7 K9:K10 K14:K15 K18:K19 K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +455,7 @@
       <c r="J4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -593,7 +552,7 @@
       <c r="J7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -663,7 +622,7 @@
       <c r="J9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -690,7 +649,7 @@
       <c r="J10" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -752,7 +711,7 @@
       <c r="J12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -822,7 +781,7 @@
       <c r="J14" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -849,7 +808,7 @@
       <c r="J15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -946,7 +905,7 @@
       <c r="J18" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -973,7 +932,7 @@
       <c r="J19" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1071,7 +1030,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1105,41 +1064,41 @@
       <c r="J23" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -109,7 +109,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Me</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;我&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1"&gt;聽&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="dou2"&gt;到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;我&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="teng1"&gt;聽&lt;/phoneme&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="dou2"&gt;到&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum2</t>
@@ -312,7 +312,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="2" sqref="K3:K4 K7 K9:K10 K14:K15 K18:K19 K22"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -67,24 +67,6 @@
     <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="80%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6 ge3"&gt;係嘅&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Human turn hum1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN-SIT_0-B_contrasts_smaller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="70%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human turn hum2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Human turn hum3</t>
   </si>
   <si>
@@ -113,12 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot turn hum3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot turn hum4</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum5</t>
@@ -165,22 +141,10 @@
     <t xml:space="preserve">Not owned turn hum0</t>
   </si>
   <si>
-    <t xml:space="preserve">Not owned turn hum1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not owned turn hum2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not owned turn hum3</t>
   </si>
   <si>
     <t xml:space="preserve">Transition COL0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transition COL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transition COL2</t>
   </si>
   <si>
     <t xml:space="preserve">Transition COL3</t>
@@ -309,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,25 +361,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>40</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
@@ -432,17 +388,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
@@ -459,17 +423,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
@@ -486,9 +458,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -506,62 +478,54 @@
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -576,7 +540,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>10</v>
@@ -587,22 +551,22 @@
       <c r="J8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>10</v>
@@ -611,7 +575,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>10</v>
@@ -623,22 +587,22 @@
         <v>100</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>10</v>
@@ -650,22 +614,30 @@
         <v>100</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>10</v>
@@ -677,91 +649,83 @@
         <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="E13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K13" s="2" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>10</v>
@@ -770,7 +734,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>10</v>
@@ -782,22 +746,30 @@
         <v>100</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>10</v>
@@ -808,301 +780,45 @@
       <c r="J15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">MAIN-SIT_0-B_contrasts_smaller</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="70%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="70%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum2</t>
@@ -82,7 +82,35 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo4"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ngo5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum3</t>
@@ -119,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum5</t>
@@ -202,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -231,6 +262,12 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +349,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,7 +687,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -677,7 +714,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -712,7 +749,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -747,7 +784,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -790,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -809,7 +846,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -844,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -871,7 +908,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -914,7 +951,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -933,7 +970,7 @@
         <v>100</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +978,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -968,7 +1005,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -1003,7 +1040,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1038,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1065,7 +1102,7 @@
         <v>100</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/database/bc_database.xlsx
+++ b/database/bc_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -82,35 +82,7 @@
     <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ngo5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Human turn hum3</t>
@@ -147,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;speak&gt;&lt;prosody rate="100%"&gt;&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;哦&lt;/phoneme&gt;&lt;/prosody&gt;&lt;/speak&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Robot turn hum5</t>
@@ -233,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -262,12 +231,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -687,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -714,7 +677,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -749,7 +712,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -784,7 +747,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -827,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -846,7 +809,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -881,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -908,7 +871,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,7 +879,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -951,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -970,7 +933,7 @@
         <v>100</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1005,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -1040,7 +1003,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1075,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1102,7 +1065,7 @@
         <v>100</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
